--- a/Financial Services/PayPal.xlsx
+++ b/Financial Services/PayPal.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926A7B52-B8B0-3847-A240-E84ED0833516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CB2478-6685-124E-9A5C-EB8C2287A2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2286,11 +2286,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>112.74</v>
-    <v>66.385000000000005</v>
-    <v>1.3066</v>
-    <v>1.35</v>
-    <v>1.8340000000000002E-2</v>
+    <v>103.03</v>
+    <v>65.849999999999994</v>
+    <v>1.2990999999999999</v>
+    <v>-9.6150000000000002</v>
+    <v>-0.12731700000000001</v>
+    <v>-0.115</v>
+    <v>-1.7449999999999998E-3</v>
     <v>USD</v>
     <v>PayPal Holdings, Inc. is a technology platform that enables digital payments and simplifies commerce experiences on behalf of merchants and consumers worldwide. The Company's payment solutions enable its customers to connect, transact, and send and receive payments, whether they are online or in person. It operates a global, two-sided network at scale that connects merchants and consumers with 435 million active accounts across more than 200 markets. Its brands include PayPal, Braintree, Venmo, Xoom, Hyperwallet, PayPal Zettle, PayPal Honey, and Paidy. It enables consumers to exchange funds with merchants using a variety of funding sources, which include a bank account, a PayPal or Venmo account balance, PayPal and Venmo branded credit products, including its installment products, a credit card, a debit card, certain cryptocurrencies, or other stored value products such as gift cards, and eligible rewards. It also offers consumers person-to-person (P2P) payment solutions.</v>
     <v>29900</v>
@@ -2298,24 +2300,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2211 N 1st St, SAN JOSE, CA, 95131 US</v>
-    <v>75</v>
+    <v>69.680000000000007</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45022.999978217187</v>
+    <v>45055.999995613281</v>
     <v>0</v>
-    <v>72.28</v>
-    <v>84807740000</v>
+    <v>65.849999999999994</v>
+    <v>73998529430</v>
     <v>PAYPAL HOLDINGS, INC.</v>
     <v>PAYPAL HOLDINGS, INC.</v>
-    <v>73.27</v>
-    <v>35.778399999999998</v>
-    <v>73.61</v>
-    <v>74.959999999999994</v>
-    <v>1131373000</v>
+    <v>69.53</v>
+    <v>31.974499999999999</v>
+    <v>75.52</v>
+    <v>65.905000000000001</v>
+    <v>65.790000000000006</v>
+    <v>1122806000</v>
     <v>PYPL</v>
     <v>PAYPAL HOLDINGS, INC. (XNAS:PYPL)</v>
-    <v>1245</v>
-    <v>11880155</v>
+    <v>68702553</v>
+    <v>10323885</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2347,6 +2350,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2367,6 +2372,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2383,7 +2389,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2394,13 +2400,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2466,13 +2475,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2517,6 +2532,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2524,6 +2542,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2885,10 +2906,10 @@
   <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3042,13 +3063,13 @@
         <v>27518000000</v>
       </c>
       <c r="M3" s="28">
-        <v>29403000000</v>
+        <v>29427000000</v>
       </c>
       <c r="N3" s="28">
-        <v>32114000000</v>
+        <v>32276000000</v>
       </c>
       <c r="O3" s="28">
-        <v>35594000000</v>
+        <v>35822000000</v>
       </c>
       <c r="P3" s="28">
         <v>39103000000</v>
@@ -3116,19 +3137,19 @@
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8500617777454753E-2</v>
+        <v>6.9372774184170316E-2</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>9.2201476039859953E-2</v>
+        <v>9.6815849390015973E-2</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10836395341595573</v>
+        <v>0.10986491510720042</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>9.8584031016463403E-2</v>
+        <v>9.1591759254089578E-2</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
@@ -3730,15 +3751,15 @@
       </c>
       <c r="S16" s="30">
         <f>T101/L3</f>
-        <v>3.0819005741696346</v>
+        <v>2.6890954804128206</v>
       </c>
       <c r="T16" s="30">
         <f>T101/L28</f>
-        <v>35.059007854485323</v>
+        <v>30.590545444398511</v>
       </c>
       <c r="U16" s="31">
         <f>T101/L106</f>
-        <v>16.606175837086351</v>
+        <v>14.489627850009791</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6874,7 +6895,7 @@
       </c>
       <c r="T95" s="38" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>1.3066</v>
+        <v>1.2990999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -6963,7 +6984,7 @@
       </c>
       <c r="T97" s="36">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>9.7199130000000009E-2</v>
+        <v>9.6876254999999994E-2</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7095,7 +7116,7 @@
       </c>
       <c r="T100" s="34">
         <f>T99/T103</f>
-        <v>0.10939384029822502</v>
+        <v>0.12340146499511209</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7140,7 +7161,7 @@
       </c>
       <c r="T101" s="39" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>84807740000</v>
+        <v>73998529430</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7185,7 +7206,7 @@
       </c>
       <c r="T102" s="34">
         <f>T101/T103</f>
-        <v>0.89060615970177504</v>
+        <v>0.87659853500488794</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7230,7 +7251,7 @@
       </c>
       <c r="T103" s="40">
         <f>T99+T101</f>
-        <v>95224740000</v>
+        <v>84415529430</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7331,7 +7352,7 @@
       </c>
       <c r="T105" s="26">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>8.8860419276079156E-2</v>
+        <v>8.7509635172054234E-2</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7373,23 +7394,23 @@
       </c>
       <c r="M106" s="41">
         <f>L106*(1+$T$106)</f>
-        <v>5657683593.0595875</v>
+        <v>5657678710.4466047</v>
       </c>
       <c r="N106" s="41">
         <f t="shared" ref="N106:Q106" si="9">M106*(1+$T$106)</f>
-        <v>6267746943.249588</v>
+        <v>6267736125.0520372</v>
       </c>
       <c r="O106" s="41">
         <f t="shared" si="9"/>
-        <v>6943592920.7504559</v>
+        <v>6943574943.6859226</v>
       </c>
       <c r="P106" s="41">
         <f t="shared" si="9"/>
-        <v>7692314811.9472399</v>
+        <v>7692288257.9366217</v>
       </c>
       <c r="Q106" s="41">
         <f t="shared" si="9"/>
-        <v>8521770766.438838</v>
+        <v>8521733994.8201342</v>
       </c>
       <c r="R106" s="42" t="s">
         <v>146</v>
@@ -7399,7 +7420,7 @@
       </c>
       <c r="T106" s="44">
         <f>(SUM(M4:Q4)/5)</f>
-        <v>0.10782917428227679</v>
+        <v>0.10782821821942527</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7421,7 +7442,7 @@
       <c r="P107" s="42"/>
       <c r="Q107" s="45">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>136779794661.8195</v>
+        <v>139734895598.87299</v>
       </c>
       <c r="R107" s="46" t="s">
         <v>148</v>
@@ -7436,23 +7457,23 @@
     <row r="108" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="M108" s="45">
         <f t="shared" ref="M108:O108" si="10">M107+M106</f>
-        <v>5657683593.0595875</v>
+        <v>5657678710.4466047</v>
       </c>
       <c r="N108" s="45">
         <f t="shared" si="10"/>
-        <v>6267746943.249588</v>
+        <v>6267736125.0520372</v>
       </c>
       <c r="O108" s="45">
         <f t="shared" si="10"/>
-        <v>6943592920.7504559</v>
+        <v>6943574943.6859226</v>
       </c>
       <c r="P108" s="45">
         <f>P107+P106</f>
-        <v>7692314811.9472399</v>
+        <v>7692288257.9366217</v>
       </c>
       <c r="Q108" s="45">
         <f>Q107+Q106</f>
-        <v>145301565428.25833</v>
+        <v>148256629593.69312</v>
       </c>
       <c r="R108" s="46" t="s">
         <v>144</v>
@@ -7462,7 +7483,7 @@
       </c>
       <c r="T108" s="50">
         <f>T105</f>
-        <v>8.8860419276079156E-2</v>
+        <v>8.7509635172054234E-2</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7477,7 +7498,7 @@
       </c>
       <c r="N110" s="39">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>116264569764.71271</v>
+        <v>118865135889.77626</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7504,7 +7525,7 @@
       </c>
       <c r="N113" s="39">
         <f>N110+N111-N112</f>
-        <v>116698569764.71271</v>
+        <v>119299135889.77626</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7522,7 +7543,7 @@
       </c>
       <c r="N115" s="54">
         <f>N113/N114</f>
-        <v>106.36028869705774</v>
+        <v>108.73047167697962</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7531,7 +7552,7 @@
       </c>
       <c r="N116" s="55" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>74.959999999999994</v>
+        <v>65.905000000000001</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7540,7 +7561,7 @@
       </c>
       <c r="N117" s="57">
         <f>N115/N116-1</f>
-        <v>0.4188939260546658</v>
+        <v>0.64980610996099863</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/PayPal.xlsx
+++ b/Financial Services/PayPal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CB2478-6685-124E-9A5C-EB8C2287A2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729D7CCA-41A2-B943-97F7-AD542E3412FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2287,12 +2287,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>103.03</v>
-    <v>65.849999999999994</v>
-    <v>1.2990999999999999</v>
-    <v>-9.6150000000000002</v>
-    <v>-0.12731700000000001</v>
-    <v>-0.115</v>
-    <v>-1.7449999999999998E-3</v>
+    <v>58.95</v>
+    <v>1.3066</v>
+    <v>-0.06</v>
+    <v>-9.6699999999999998E-4</v>
     <v>USD</v>
     <v>PayPal Holdings, Inc. is a technology platform that enables digital payments and simplifies commerce experiences on behalf of merchants and consumers worldwide. The Company's payment solutions enable its customers to connect, transact, and send and receive payments, whether they are online or in person. It operates a global, two-sided network at scale that connects merchants and consumers with 435 million active accounts across more than 200 markets. Its brands include PayPal, Braintree, Venmo, Xoom, Hyperwallet, PayPal Zettle, PayPal Honey, and Paidy. It enables consumers to exchange funds with merchants using a variety of funding sources, which include a bank account, a PayPal or Venmo account balance, PayPal and Venmo branded credit products, including its installment products, a credit card, a debit card, certain cryptocurrencies, or other stored value products such as gift cards, and eligible rewards. It also offers consumers person-to-person (P2P) payment solutions.</v>
     <v>29900</v>
@@ -2300,25 +2298,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2211 N 1st St, SAN JOSE, CA, 95131 US</v>
-    <v>69.680000000000007</v>
+    <v>63.215000000000003</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45055.999995613281</v>
+    <v>45077.999938078123</v>
     <v>0</v>
-    <v>65.849999999999994</v>
-    <v>73998529430</v>
+    <v>61.17</v>
+    <v>69163110860</v>
     <v>PAYPAL HOLDINGS, INC.</v>
     <v>PAYPAL HOLDINGS, INC.</v>
-    <v>69.53</v>
-    <v>31.974499999999999</v>
-    <v>75.52</v>
-    <v>65.905000000000001</v>
-    <v>65.790000000000006</v>
-    <v>1122806000</v>
+    <v>61.84</v>
+    <v>26.245999999999999</v>
+    <v>62.05</v>
+    <v>61.99</v>
+    <v>1115714000</v>
     <v>PYPL</v>
     <v>PAYPAL HOLDINGS, INC. (XNAS:PYPL)</v>
-    <v>68702553</v>
-    <v>10323885</v>
+    <v>60883</v>
+    <v>20209931</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2350,8 +2347,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2372,7 +2367,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2389,7 +2383,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2400,16 +2394,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2475,19 +2466,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2532,9 +2517,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2542,9 +2524,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2906,10 +2885,10 @@
   <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="N104" sqref="N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3751,15 +3730,15 @@
       </c>
       <c r="S16" s="30">
         <f>T101/L3</f>
-        <v>2.6890954804128206</v>
+        <v>2.5133770935387747</v>
       </c>
       <c r="T16" s="30">
         <f>T101/L28</f>
-        <v>30.590545444398511</v>
+        <v>28.591612591980159</v>
       </c>
       <c r="U16" s="31">
         <f>T101/L106</f>
-        <v>14.489627850009791</v>
+        <v>13.542806121010377</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6895,7 +6874,7 @@
       </c>
       <c r="T95" s="38" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>1.2990999999999999</v>
+        <v>1.3066</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -6984,7 +6963,7 @@
       </c>
       <c r="T97" s="36">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>9.6876254999999994E-2</v>
+        <v>9.7199130000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7116,7 +7095,7 @@
       </c>
       <c r="T100" s="34">
         <f>T99/T103</f>
-        <v>0.12340146499511209</v>
+        <v>0.13089954119724634</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7161,7 +7140,7 @@
       </c>
       <c r="T101" s="39" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>73998529430</v>
+        <v>69163110860</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7206,7 +7185,7 @@
       </c>
       <c r="T102" s="34">
         <f>T101/T103</f>
-        <v>0.87659853500488794</v>
+        <v>0.86910045880275366</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7251,7 +7230,7 @@
       </c>
       <c r="T103" s="40">
         <f>T99+T101</f>
-        <v>84415529430</v>
+        <v>79580110860</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7352,7 +7331,7 @@
       </c>
       <c r="T105" s="26">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>8.7509635172054234E-2</v>
+        <v>8.7221114739158043E-2</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7442,7 +7421,7 @@
       <c r="P107" s="42"/>
       <c r="Q107" s="45">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>139734895598.87299</v>
+        <v>140382848833.68573</v>
       </c>
       <c r="R107" s="46" t="s">
         <v>148</v>
@@ -7473,7 +7452,7 @@
       </c>
       <c r="Q108" s="45">
         <f>Q107+Q106</f>
-        <v>148256629593.69312</v>
+        <v>148904582828.50586</v>
       </c>
       <c r="R108" s="46" t="s">
         <v>144</v>
@@ -7483,7 +7462,7 @@
       </c>
       <c r="T108" s="50">
         <f>T105</f>
-        <v>8.7509635172054234E-2</v>
+        <v>8.7221114739158043E-2</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7498,7 +7477,7 @@
       </c>
       <c r="N110" s="39">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>118865135889.77626</v>
+        <v>119435395456.05508</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7525,7 +7504,7 @@
       </c>
       <c r="N113" s="39">
         <f>N110+N111-N112</f>
-        <v>119299135889.77626</v>
+        <v>119869395456.05508</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7543,7 +7522,7 @@
       </c>
       <c r="N115" s="54">
         <f>N113/N114</f>
-        <v>108.73047167697962</v>
+        <v>109.2502121692921</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7552,7 +7531,7 @@
       </c>
       <c r="N116" s="55" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>65.905000000000001</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7561,7 +7540,7 @@
       </c>
       <c r="N117" s="57">
         <f>N115/N116-1</f>
-        <v>0.64980610996099863</v>
+        <v>0.7623844518356524</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
